--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almaz\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almaz\OneDrive\Рабочий стол\Master\SmogCare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377196AD-10C8-43A0-A811-4272A45E282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B5259-EF1B-4BAA-9882-72CBF04F54A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{0911FB26-C0C8-413E-926F-89FD2F8DF792}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0911FB26-C0C8-413E-926F-89FD2F8DF792}"/>
   </bookViews>
   <sheets>
     <sheet name="Грипп и ОРВИ" sheetId="1" r:id="rId1"/>
     <sheet name="Болезни органов дыхания" sheetId="2" r:id="rId2"/>
+    <sheet name="Экология" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Грипп и ОРВИ'!$A$3:$K$382</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
   <si>
     <t>Неделя</t>
   </si>
@@ -72,6 +73,204 @@
   <si>
     <t>Департамент профилактики заболеваний и государственного санитарно-эпидемиологического надзора</t>
   </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Зарегистрировано больных - всего</t>
+  </si>
+  <si>
+    <t>в том числе с диагнозом, установленным впервые в жизни</t>
+  </si>
+  <si>
+    <t>Заболеваемость болезнями органов дыхания по территории (на 100 000 населения)</t>
+  </si>
+  <si>
+    <t>Кыргызская республика</t>
+  </si>
+  <si>
+    <t>Баткенская область</t>
+  </si>
+  <si>
+    <t>Джалал-Абадская   область</t>
+  </si>
+  <si>
+    <t>Иссык-Кульская область</t>
+  </si>
+  <si>
+    <t>Нарынская область</t>
+  </si>
+  <si>
+    <t>Ошская область</t>
+  </si>
+  <si>
+    <t>Таласская область</t>
+  </si>
+  <si>
+    <t>Чуйская область</t>
+  </si>
+  <si>
+    <t>г.Бишкек</t>
+  </si>
+  <si>
+    <t>г.Ош</t>
+  </si>
+  <si>
+    <t>Заболеваемость болезнями органов дыхания по возрастным группам (на 1 000 населения)</t>
+  </si>
+  <si>
+    <t>15 -17 лет</t>
+  </si>
+  <si>
+    <t>18 лет и старше</t>
+  </si>
+  <si>
+    <t>Возрастная группа</t>
+  </si>
+  <si>
+    <t>Заболеваемость бронхиальной астмой по территории (на 100 000 населения)</t>
+  </si>
+  <si>
+    <t>Заболеваемость бронхиальной астмой по возрастным группам (на человека)</t>
+  </si>
+  <si>
+    <t>Выбросы наиболее распространенных загрязняющих атмосферу веществ, отходящих от стационарных источников (тысяч тонн)</t>
+  </si>
+  <si>
+    <t>в том числе:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   твердые вещества</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   газообразные и жидкие вещества</t>
+  </si>
+  <si>
+    <t>из них:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    сернистый ангидрид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    окислы азота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    окись углерода</t>
+  </si>
+  <si>
+    <t>Выбросы наиболее распространенных загрязняющих атмосферу веществ, отходящих от стационарных источников , по территории (тысяч тонн)</t>
+  </si>
+  <si>
+    <t>Кыргызская Республика</t>
+  </si>
+  <si>
+    <t>Джалал-Абадская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таласская область </t>
+  </si>
+  <si>
+    <t>г. Бишкек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> г. Ош</t>
+  </si>
+  <si>
+    <t>Заболеваемость болезнями органов дыхания по территории (случаев)</t>
+  </si>
+  <si>
+    <t>г. Ош</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Республиканские учреждения Министерства  здравоохранения Кыргызской Республики</t>
+  </si>
+  <si>
+    <t>Уловлено (обезврежено) вредных веществ, отходящих от стационарных источников</t>
+  </si>
+  <si>
+    <t>Выбросы вредных веществ в атмосферу стационарными источниками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    прочих газообразных и жидких </t>
+  </si>
+  <si>
+    <t>Показатели качества атмосферного воздуха в отдельных городах в 2022 г.</t>
+  </si>
+  <si>
+    <t>Средняя концентрация за год, мкг/м3</t>
+  </si>
+  <si>
+    <t>Диоксид
+серы
+(SO2)</t>
+  </si>
+  <si>
+    <t>Диоксид
+азота
+(NO2)</t>
+  </si>
+  <si>
+    <t>Оксид
+азота
+( NO)</t>
+  </si>
+  <si>
+    <t>Аммиак
+(NH3)</t>
+  </si>
+  <si>
+    <t>Формальдегид
+(HCOH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Бишкек </t>
+  </si>
+  <si>
+    <t>г. Кара-Балта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Ош </t>
+  </si>
+  <si>
+    <t>г. Токмок</t>
+  </si>
+  <si>
+    <t>г. Чолпон-Ата</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Индекс загрязнения атмосферного воздуха (ИЗА)</t>
+  </si>
+  <si>
+    <t>Диоксид азота (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индустриальный район </t>
+  </si>
+  <si>
+    <t>Спальный район</t>
+  </si>
+  <si>
+    <t>2022 год</t>
+  </si>
+  <si>
+    <t>2023 год</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022 год</t>
+  </si>
+  <si>
+    <t>Доля случаев превышения предельной допустимой концентрации (ПДК) 
+диоксида азота (в процентах к общему числу наблюдений)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023 год</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0&quot; случаев&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +333,276 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -166,11 +625,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,21 +889,172 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="46">
+    <cellStyle name="20% - Акцент1 2" xfId="3" xr:uid="{A5DF56F7-A0AD-45B3-B831-1C7AF11D1DC8}"/>
+    <cellStyle name="20% - Акцент2 2" xfId="4" xr:uid="{D5DB416D-5B6E-4B01-8F93-30FFF27AC452}"/>
+    <cellStyle name="20% - Акцент3 2" xfId="5" xr:uid="{8CD679D5-175B-472D-BB65-B745F2B448EC}"/>
+    <cellStyle name="20% - Акцент4 2" xfId="6" xr:uid="{665E3AA4-79A7-4D0A-B595-3D5E2041600B}"/>
+    <cellStyle name="20% - Акцент5 2" xfId="7" xr:uid="{B87B9AA1-C7D4-496E-842F-4A2045EBCBCF}"/>
+    <cellStyle name="20% - Акцент6 2" xfId="8" xr:uid="{36471C51-16E7-44BA-999A-1DB2A26C8975}"/>
+    <cellStyle name="40% - Акцент1 2" xfId="9" xr:uid="{40F2136B-7306-4D8F-9289-279EC74C9AB8}"/>
+    <cellStyle name="40% - Акцент2 2" xfId="10" xr:uid="{6150696E-4942-463C-AFC9-6C397EE85D15}"/>
+    <cellStyle name="40% - Акцент3 2" xfId="11" xr:uid="{98954A68-A3F9-4C84-AC54-B69BF3931B73}"/>
+    <cellStyle name="40% - Акцент4 2" xfId="12" xr:uid="{24BAC807-1062-4CFD-9877-4AE8C6AD3FE0}"/>
+    <cellStyle name="40% - Акцент5 2" xfId="13" xr:uid="{DA8A7CD2-E140-4465-84B4-D8A169461D15}"/>
+    <cellStyle name="40% - Акцент6 2" xfId="14" xr:uid="{61657881-0B70-4E71-8570-8E830E761E09}"/>
+    <cellStyle name="60% - Акцент1 2" xfId="15" xr:uid="{756490E0-49A4-4B57-B1AF-2AC58B15CF0D}"/>
+    <cellStyle name="60% - Акцент2 2" xfId="16" xr:uid="{1FA56A5C-4870-4539-8E73-A94263C79B87}"/>
+    <cellStyle name="60% - Акцент3 2" xfId="17" xr:uid="{145B284B-738F-41DE-A085-92834C91C6DF}"/>
+    <cellStyle name="60% - Акцент4 2" xfId="18" xr:uid="{A998FCCB-38EA-4EA1-930A-342FF9004F70}"/>
+    <cellStyle name="60% - Акцент5 2" xfId="19" xr:uid="{B9470A50-8225-4D0A-A95F-43BB05781885}"/>
+    <cellStyle name="60% - Акцент6 2" xfId="20" xr:uid="{57458B1A-76E1-41B0-8522-17DE874F01A4}"/>
+    <cellStyle name="Normal_Book1" xfId="45" xr:uid="{7A6706AE-C1B4-4097-AA15-5FE92807D8A0}"/>
+    <cellStyle name="Акцент1 2" xfId="21" xr:uid="{E4E3B6A5-83C2-4684-B76F-AFF37EB301ED}"/>
+    <cellStyle name="Акцент2 2" xfId="22" xr:uid="{B3EE4B41-E36D-480B-B221-2C6E73E9224C}"/>
+    <cellStyle name="Акцент3 2" xfId="23" xr:uid="{C73E9B73-EDD7-498A-9B48-93F8781901AF}"/>
+    <cellStyle name="Акцент4 2" xfId="24" xr:uid="{E39AD614-5F77-4D60-92F0-56D85461FADE}"/>
+    <cellStyle name="Акцент5 2" xfId="25" xr:uid="{8F64D01D-E1DA-41A5-82F5-378C12A7927E}"/>
+    <cellStyle name="Акцент6 2" xfId="26" xr:uid="{4DF879EB-7DE5-41EF-8E02-5E08E221C893}"/>
+    <cellStyle name="Ввод  2" xfId="27" xr:uid="{9270AF58-8FAC-4230-A5F5-F37E83030383}"/>
+    <cellStyle name="Вывод 2" xfId="28" xr:uid="{256E62C6-548B-4283-A6CA-569C104481FE}"/>
+    <cellStyle name="Вычисление 2" xfId="29" xr:uid="{C37FA810-A9E0-4F1D-ACFA-7DAD957BC7B0}"/>
+    <cellStyle name="Заголовок 1 2" xfId="30" xr:uid="{BB3F5EB1-91ED-4611-99DF-59D8AA6BDC8A}"/>
+    <cellStyle name="Заголовок 2 2" xfId="31" xr:uid="{07D42D9C-BC39-40D0-B2A9-12EFFC885F98}"/>
+    <cellStyle name="Заголовок 3 2" xfId="32" xr:uid="{FD4656AA-2CC7-4BAD-8F9F-B877A2718E13}"/>
+    <cellStyle name="Заголовок 4 2" xfId="33" xr:uid="{FD446E20-1D92-42CA-BE28-5884BD09415A}"/>
+    <cellStyle name="Итог 2" xfId="34" xr:uid="{965C1260-000B-4DEB-B1C4-D6F36F9B2184}"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="35" xr:uid="{713493FD-598A-443E-81A0-FD7FE3CE667B}"/>
+    <cellStyle name="Название 2" xfId="36" xr:uid="{AB234140-D360-4E47-BCEC-3A9B20EC7996}"/>
+    <cellStyle name="Нейтральный 2" xfId="37" xr:uid="{E56A4C55-D743-428C-ADB6-A0E7B8F24FB6}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{FD793816-7536-45C7-9BF7-11E771B84165}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{C3527C7A-1719-4B2C-A33C-1FBEC0409390}"/>
+    <cellStyle name="Обычный 4" xfId="44" xr:uid="{B8154B15-02FF-4D8C-AA58-A4F73E91B97A}"/>
+    <cellStyle name="Плохой 2" xfId="38" xr:uid="{4B85F9A4-12BA-4AFA-A502-A94229FD96B9}"/>
+    <cellStyle name="Пояснение 2" xfId="39" xr:uid="{24B0A166-D607-4064-8925-7EF0BC981D92}"/>
+    <cellStyle name="Примечание 2" xfId="40" xr:uid="{B4625C2C-32AE-43FD-9CD0-3DE16B55EA94}"/>
+    <cellStyle name="Связанная ячейка 2" xfId="41" xr:uid="{128F5F95-EFBD-47F1-B16C-4A796D4BDA7F}"/>
+    <cellStyle name="Текст предупреждения 2" xfId="42" xr:uid="{ED4CC400-D790-4053-B2EB-6E7EEABB33BF}"/>
+    <cellStyle name="Хороший 2" xfId="43" xr:uid="{C07DDF1B-AC19-4FF3-AE73-6530EADA8AFA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,61 +1366,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E775B61A-065B-4678-BD34-74055DC2223A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K460"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K384" sqref="K384"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K218" sqref="K218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -605,7 +1429,7 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -614,17 +1438,17 @@
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>40</v>
       </c>
@@ -644,7 +1468,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>41</v>
       </c>
@@ -665,7 +1489,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2">
         <f t="shared" ref="B6:B69" si="0">C5+1</f>
@@ -684,7 +1508,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -703,7 +1527,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -722,7 +1546,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -741,7 +1565,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -760,7 +1584,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -779,7 +1603,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -798,7 +1622,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -817,7 +1641,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -836,7 +1660,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
@@ -855,7 +1679,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -874,7 +1698,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -893,7 +1717,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -912,7 +1736,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
@@ -931,7 +1755,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
@@ -950,7 +1774,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -969,7 +1793,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -988,7 +1812,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -1007,7 +1831,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -1026,7 +1850,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -1045,7 +1869,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -1064,7 +1888,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -1083,7 +1907,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
@@ -1102,7 +1926,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
@@ -1121,7 +1945,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
@@ -1140,7 +1964,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
@@ -1159,7 +1983,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
@@ -1178,7 +2002,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
@@ -1197,7 +2021,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
@@ -1216,7 +2040,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
@@ -1235,7 +2059,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
@@ -1254,7 +2078,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
@@ -1273,7 +2097,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
@@ -1292,7 +2116,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
@@ -1311,7 +2135,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
@@ -1330,7 +2154,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
@@ -1349,7 +2173,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="13"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
@@ -1368,7 +2192,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
@@ -1387,7 +2211,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
@@ -1406,7 +2230,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
@@ -1425,7 +2249,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
@@ -1444,7 +2268,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
@@ -1463,7 +2287,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
@@ -1482,7 +2306,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
@@ -1501,7 +2325,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
@@ -1520,7 +2344,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
@@ -1539,7 +2363,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
@@ -1558,7 +2382,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
@@ -1577,7 +2401,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
@@ -1596,7 +2420,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="13"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
@@ -1615,7 +2439,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="13"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
@@ -1634,7 +2458,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="13"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
@@ -1653,7 +2477,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
@@ -1672,7 +2496,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>43</v>
       </c>
@@ -1695,7 +2519,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>44</v>
       </c>
@@ -1716,7 +2540,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>45</v>
       </c>
@@ -1737,7 +2561,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="13"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>46</v>
       </c>
@@ -1758,7 +2582,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="13"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>47</v>
       </c>
@@ -1779,7 +2603,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="13"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>48</v>
       </c>
@@ -1802,7 +2626,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="13"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>49</v>
       </c>
@@ -1823,7 +2647,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="13"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>50</v>
       </c>
@@ -1844,7 +2668,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="13"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>51</v>
       </c>
@@ -1865,7 +2689,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="13"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>52</v>
       </c>
@@ -1888,7 +2712,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="13"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
@@ -1907,7 +2731,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2">
         <f t="shared" ref="B70:B133" si="2">C69+1</f>
@@ -1926,7 +2750,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2">
         <f t="shared" si="2"/>
@@ -1945,7 +2769,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="13"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2">
         <f t="shared" si="2"/>
@@ -1964,7 +2788,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="13"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2">
         <f t="shared" si="2"/>
@@ -1983,7 +2807,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="13"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2">
         <f t="shared" si="2"/>
@@ -2002,7 +2826,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2">
         <f t="shared" si="2"/>
@@ -2021,7 +2845,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="13"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2">
         <f t="shared" si="2"/>
@@ -2040,7 +2864,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2">
         <f t="shared" si="2"/>
@@ -2059,7 +2883,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="13"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2">
         <f t="shared" si="2"/>
@@ -2078,7 +2902,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="13"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2">
         <f t="shared" si="2"/>
@@ -2097,7 +2921,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2">
         <f t="shared" si="2"/>
@@ -2116,7 +2940,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="13"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>13</v>
       </c>
@@ -2139,7 +2963,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="13"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>14</v>
       </c>
@@ -2160,7 +2984,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>15</v>
       </c>
@@ -2181,7 +3005,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="13"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>16</v>
       </c>
@@ -2204,7 +3028,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="13"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2">
         <f t="shared" si="2"/>
@@ -2223,7 +3047,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2">
         <f t="shared" si="2"/>
@@ -2242,7 +3066,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="13"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2">
         <f t="shared" si="2"/>
@@ -2261,7 +3085,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="13"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2">
         <f t="shared" si="2"/>
@@ -2280,7 +3104,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="13"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2">
         <f t="shared" si="2"/>
@@ -2299,7 +3123,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="13"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2">
         <f t="shared" si="2"/>
@@ -2318,7 +3142,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="13"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2">
         <f t="shared" si="2"/>
@@ -2337,7 +3161,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2">
         <f t="shared" si="2"/>
@@ -2356,7 +3180,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2">
         <f t="shared" si="2"/>
@@ -2375,7 +3199,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2">
         <f t="shared" si="2"/>
@@ -2394,7 +3218,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="13"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2">
         <f t="shared" si="2"/>
@@ -2413,7 +3237,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="13"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2">
         <f t="shared" si="2"/>
@@ -2432,7 +3256,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="13"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2">
         <f t="shared" si="2"/>
@@ -2451,7 +3275,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2">
         <f t="shared" si="2"/>
@@ -2470,7 +3294,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="13"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2">
         <f t="shared" si="2"/>
@@ -2489,7 +3313,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="13"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2">
         <f t="shared" si="2"/>
@@ -2508,7 +3332,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2">
         <f t="shared" si="2"/>
@@ -2527,7 +3351,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="13"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2">
         <f t="shared" si="2"/>
@@ -2546,7 +3370,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="13"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2">
         <f t="shared" si="2"/>
@@ -2565,7 +3389,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2">
         <f t="shared" si="2"/>
@@ -2584,7 +3408,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2">
         <f t="shared" si="2"/>
@@ -2603,7 +3427,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2">
         <f t="shared" si="2"/>
@@ -2622,7 +3446,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2">
         <f t="shared" si="2"/>
@@ -2641,7 +3465,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2">
         <f t="shared" si="2"/>
@@ -2660,7 +3484,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2">
         <f t="shared" si="2"/>
@@ -2679,7 +3503,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>42</v>
       </c>
@@ -2702,7 +3526,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>43</v>
       </c>
@@ -2725,7 +3549,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>44</v>
       </c>
@@ -2746,7 +3570,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45</v>
       </c>
@@ -2767,7 +3591,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="13"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>46</v>
       </c>
@@ -2788,7 +3612,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="13"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>47</v>
       </c>
@@ -2811,7 +3635,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="13"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>48</v>
       </c>
@@ -2845,7 +3669,7 @@
       </c>
       <c r="K116" s="13"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>49</v>
       </c>
@@ -2866,7 +3690,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>50</v>
       </c>
@@ -2887,7 +3711,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="13"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>51</v>
       </c>
@@ -2910,7 +3734,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="13"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>52</v>
       </c>
@@ -2933,7 +3757,7 @@
       <c r="J120" s="4"/>
       <c r="K120" s="13"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2">
         <f t="shared" si="2"/>
@@ -2952,7 +3776,7 @@
       <c r="J121" s="4"/>
       <c r="K121" s="13"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2">
         <f t="shared" si="2"/>
@@ -2971,7 +3795,7 @@
       <c r="J122" s="4"/>
       <c r="K122" s="13"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2">
         <f t="shared" si="2"/>
@@ -2990,7 +3814,7 @@
       <c r="J123" s="4"/>
       <c r="K123" s="13"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2">
         <f t="shared" si="2"/>
@@ -3009,7 +3833,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="13"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2">
         <f t="shared" si="2"/>
@@ -3028,7 +3852,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="13"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2">
         <f t="shared" si="2"/>
@@ -3047,7 +3871,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="13"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2">
         <f t="shared" si="2"/>
@@ -3066,7 +3890,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="13"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2">
         <f t="shared" si="2"/>
@@ -3085,7 +3909,7 @@
       <c r="J128" s="4"/>
       <c r="K128" s="13"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2">
         <f t="shared" si="2"/>
@@ -3104,7 +3928,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="13"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2">
         <f t="shared" si="2"/>
@@ -3123,7 +3947,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="13"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2">
         <f t="shared" si="2"/>
@@ -3142,7 +3966,7 @@
       <c r="J131" s="4"/>
       <c r="K131" s="13"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2">
         <f t="shared" si="2"/>
@@ -3161,7 +3985,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="13"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>12</v>
       </c>
@@ -3184,7 +4008,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="13"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>13</v>
       </c>
@@ -3207,7 +4031,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="13"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>14</v>
       </c>
@@ -3228,7 +4052,7 @@
       <c r="J135" s="4"/>
       <c r="K135" s="13"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>15</v>
       </c>
@@ -3251,7 +4075,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="13"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>16</v>
       </c>
@@ -3274,7 +4098,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="13"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>17</v>
       </c>
@@ -3295,7 +4119,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="13"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>18</v>
       </c>
@@ -3316,7 +4140,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="13"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>19</v>
       </c>
@@ -3337,7 +4161,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="13"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>20</v>
       </c>
@@ -3358,7 +4182,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="13"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>21</v>
       </c>
@@ -3379,7 +4203,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="13"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>22</v>
       </c>
@@ -3400,7 +4224,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="13"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>23</v>
       </c>
@@ -3421,7 +4245,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="13"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>24</v>
       </c>
@@ -3442,7 +4266,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="13"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>25</v>
       </c>
@@ -3463,7 +4287,7 @@
       <c r="J146" s="4"/>
       <c r="K146" s="13"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>26</v>
       </c>
@@ -3484,7 +4308,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="13"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>27</v>
       </c>
@@ -3505,7 +4329,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="13"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>28</v>
       </c>
@@ -3526,7 +4350,7 @@
       <c r="J149" s="4"/>
       <c r="K149" s="13"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>29</v>
       </c>
@@ -3547,7 +4371,7 @@
       <c r="J150" s="4"/>
       <c r="K150" s="13"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>30</v>
       </c>
@@ -3568,7 +4392,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="13"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>31</v>
       </c>
@@ -3589,7 +4413,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="13"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>32</v>
       </c>
@@ -3610,7 +4434,7 @@
       <c r="J153" s="4"/>
       <c r="K153" s="13"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>33</v>
       </c>
@@ -3631,7 +4455,7 @@
       <c r="J154" s="4"/>
       <c r="K154" s="13"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>34</v>
       </c>
@@ -3652,7 +4476,7 @@
       <c r="J155" s="4"/>
       <c r="K155" s="13"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>35</v>
       </c>
@@ -3673,7 +4497,7 @@
       <c r="J156" s="4"/>
       <c r="K156" s="13"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>36</v>
       </c>
@@ -3694,7 +4518,7 @@
       <c r="J157" s="4"/>
       <c r="K157" s="13"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>37</v>
       </c>
@@ -3715,7 +4539,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="13"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>38</v>
       </c>
@@ -3736,7 +4560,7 @@
       <c r="J159" s="4"/>
       <c r="K159" s="13"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>39</v>
       </c>
@@ -3757,7 +4581,7 @@
       <c r="J160" s="4"/>
       <c r="K160" s="13"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>40</v>
       </c>
@@ -3782,7 +4606,7 @@
       <c r="J161" s="4"/>
       <c r="K161" s="13"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>41</v>
       </c>
@@ -3803,7 +4627,7 @@
       <c r="J162" s="4"/>
       <c r="K162" s="13"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>42</v>
       </c>
@@ -3824,7 +4648,7 @@
       <c r="J163" s="4"/>
       <c r="K163" s="13"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>43</v>
       </c>
@@ -3845,7 +4669,7 @@
       <c r="J164" s="4"/>
       <c r="K164" s="13"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>44</v>
       </c>
@@ -3866,7 +4690,7 @@
       <c r="J165" s="4"/>
       <c r="K165" s="13"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>45</v>
       </c>
@@ -3891,7 +4715,7 @@
       <c r="J166" s="4"/>
       <c r="K166" s="13"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2">
         <f t="shared" si="4"/>
@@ -3910,7 +4734,7 @@
       <c r="J167" s="4"/>
       <c r="K167" s="13"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2">
         <f t="shared" si="4"/>
@@ -3929,7 +4753,7 @@
       <c r="J168" s="4"/>
       <c r="K168" s="13"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2">
         <f t="shared" si="4"/>
@@ -3948,7 +4772,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="13"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2">
         <f t="shared" si="4"/>
@@ -3967,7 +4791,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="13"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2">
         <f t="shared" si="4"/>
@@ -3986,7 +4810,7 @@
       <c r="J171" s="4"/>
       <c r="K171" s="13"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2">
         <f t="shared" si="4"/>
@@ -4005,7 +4829,7 @@
       <c r="J172" s="4"/>
       <c r="K172" s="13"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2">
         <f t="shared" si="4"/>
@@ -4024,7 +4848,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="13"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2">
         <f t="shared" si="4"/>
@@ -4043,7 +4867,7 @@
       <c r="J174" s="4"/>
       <c r="K174" s="13"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2">
         <f t="shared" si="4"/>
@@ -4062,7 +4886,7 @@
       <c r="J175" s="4"/>
       <c r="K175" s="13"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2">
         <f t="shared" si="4"/>
@@ -4081,7 +4905,7 @@
       <c r="J176" s="4"/>
       <c r="K176" s="13"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2">
         <f t="shared" si="4"/>
@@ -4100,7 +4924,7 @@
       <c r="J177" s="4"/>
       <c r="K177" s="13"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2">
         <f t="shared" si="4"/>
@@ -4119,7 +4943,7 @@
       <c r="J178" s="4"/>
       <c r="K178" s="13"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2">
         <f t="shared" si="4"/>
@@ -4138,7 +4962,7 @@
       <c r="J179" s="4"/>
       <c r="K179" s="13"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2">
         <f t="shared" si="4"/>
@@ -4157,7 +4981,7 @@
       <c r="J180" s="4"/>
       <c r="K180" s="13"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2">
         <f t="shared" si="4"/>
@@ -4176,7 +5000,7 @@
       <c r="J181" s="4"/>
       <c r="K181" s="13"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2">
         <f t="shared" si="4"/>
@@ -4195,7 +5019,7 @@
       <c r="J182" s="4"/>
       <c r="K182" s="13"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2">
         <f t="shared" si="4"/>
@@ -4214,7 +5038,7 @@
       <c r="J183" s="4"/>
       <c r="K183" s="13"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2">
         <f t="shared" si="4"/>
@@ -4233,7 +5057,7 @@
       <c r="J184" s="4"/>
       <c r="K184" s="13"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2">
         <f t="shared" si="4"/>
@@ -4252,7 +5076,7 @@
       <c r="J185" s="4"/>
       <c r="K185" s="13"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2">
         <f t="shared" si="4"/>
@@ -4271,7 +5095,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="13"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2">
         <f t="shared" si="4"/>
@@ -4290,7 +5114,7 @@
       <c r="J187" s="4"/>
       <c r="K187" s="13"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2">
         <f t="shared" si="4"/>
@@ -4309,7 +5133,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="13"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2">
         <f t="shared" si="4"/>
@@ -4328,7 +5152,7 @@
       <c r="J189" s="4"/>
       <c r="K189" s="13"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2">
         <f t="shared" si="4"/>
@@ -4347,7 +5171,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="13"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2">
         <f t="shared" si="4"/>
@@ -4366,7 +5190,7 @@
       <c r="J191" s="4"/>
       <c r="K191" s="13"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2">
         <f t="shared" si="4"/>
@@ -4385,7 +5209,7 @@
       <c r="J192" s="4"/>
       <c r="K192" s="13"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2">
         <f t="shared" si="4"/>
@@ -4404,7 +5228,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="13"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2">
         <f t="shared" si="4"/>
@@ -4423,7 +5247,7 @@
       <c r="J194" s="4"/>
       <c r="K194" s="13"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="2">
         <f t="shared" si="4"/>
@@ -4442,7 +5266,7 @@
       <c r="J195" s="4"/>
       <c r="K195" s="13"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="2">
         <f t="shared" si="4"/>
@@ -4461,7 +5285,7 @@
       <c r="J196" s="4"/>
       <c r="K196" s="13"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="2">
         <f t="shared" si="4"/>
@@ -4480,7 +5304,7 @@
       <c r="J197" s="4"/>
       <c r="K197" s="13"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="2">
         <f t="shared" ref="B198:B261" si="6">C197+1</f>
@@ -4499,7 +5323,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="13"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="2">
         <f t="shared" si="6"/>
@@ -4518,7 +5342,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="13"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="2">
         <f t="shared" si="6"/>
@@ -4537,7 +5361,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="13"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="2">
         <f t="shared" si="6"/>
@@ -4556,7 +5380,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="13"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="2">
         <f t="shared" si="6"/>
@@ -4575,7 +5399,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="13"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="2">
         <f t="shared" si="6"/>
@@ -4594,7 +5418,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="13"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="2">
         <f t="shared" si="6"/>
@@ -4613,7 +5437,7 @@
       <c r="J204" s="4"/>
       <c r="K204" s="13"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="2">
         <f t="shared" si="6"/>
@@ -4632,7 +5456,7 @@
       <c r="J205" s="4"/>
       <c r="K205" s="13"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="2">
         <f t="shared" si="6"/>
@@ -4651,7 +5475,7 @@
       <c r="J206" s="4"/>
       <c r="K206" s="13"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="2">
         <f t="shared" si="6"/>
@@ -4670,7 +5494,7 @@
       <c r="J207" s="4"/>
       <c r="K207" s="13"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="2">
         <f t="shared" si="6"/>
@@ -4689,7 +5513,7 @@
       <c r="J208" s="4"/>
       <c r="K208" s="13"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="2">
         <f t="shared" si="6"/>
@@ -4708,7 +5532,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="13"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="2">
         <f t="shared" si="6"/>
@@ -4727,7 +5551,7 @@
       <c r="J210" s="4"/>
       <c r="K210" s="13"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="2">
         <f t="shared" si="6"/>
@@ -4746,7 +5570,7 @@
       <c r="J211" s="4"/>
       <c r="K211" s="13"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>39</v>
       </c>
@@ -4771,7 +5595,7 @@
       <c r="J212" s="4"/>
       <c r="K212" s="13"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>40</v>
       </c>
@@ -4798,7 +5622,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>41</v>
       </c>
@@ -4819,7 +5643,7 @@
       <c r="J214" s="4"/>
       <c r="K214" s="13"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>42</v>
       </c>
@@ -4840,7 +5664,7 @@
       <c r="J215" s="4"/>
       <c r="K215" s="13"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>43</v>
       </c>
@@ -4861,7 +5685,7 @@
       <c r="J216" s="4"/>
       <c r="K216" s="13"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>44</v>
       </c>
@@ -4884,7 +5708,7 @@
       <c r="J217" s="4"/>
       <c r="K217" s="13"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>45</v>
       </c>
@@ -4920,7 +5744,7 @@
       </c>
       <c r="K218" s="13"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="2">
         <f t="shared" si="6"/>
@@ -4939,7 +5763,7 @@
       <c r="J219" s="4"/>
       <c r="K219" s="13"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>47</v>
       </c>
@@ -4962,7 +5786,7 @@
       <c r="J220" s="4"/>
       <c r="K220" s="13"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>48</v>
       </c>
@@ -5000,7 +5824,7 @@
       </c>
       <c r="K221" s="13"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>49</v>
       </c>
@@ -5038,7 +5862,7 @@
       </c>
       <c r="K222" s="13"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>50</v>
       </c>
@@ -5066,7 +5890,7 @@
       <c r="J223" s="4"/>
       <c r="K223" s="13"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>51</v>
       </c>
@@ -5104,7 +5928,7 @@
       </c>
       <c r="K224" s="13"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>52</v>
       </c>
@@ -5127,7 +5951,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="13"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>1</v>
       </c>
@@ -5150,7 +5974,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="13"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>2</v>
       </c>
@@ -5173,7 +5997,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="13"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>3</v>
       </c>
@@ -5196,7 +6020,7 @@
       <c r="J228" s="4"/>
       <c r="K228" s="13"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>4</v>
       </c>
@@ -5219,7 +6043,7 @@
       <c r="J229" s="4"/>
       <c r="K229" s="13"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -5242,7 +6066,7 @@
       <c r="J230" s="4"/>
       <c r="K230" s="13"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>6</v>
       </c>
@@ -5265,7 +6089,7 @@
       <c r="J231" s="4"/>
       <c r="K231" s="13"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>7</v>
       </c>
@@ -5288,7 +6112,7 @@
       <c r="J232" s="4"/>
       <c r="K232" s="13"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>8</v>
       </c>
@@ -5311,7 +6135,7 @@
       <c r="J233" s="4"/>
       <c r="K233" s="13"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="2">
         <f t="shared" si="6"/>
@@ -5330,7 +6154,7 @@
       <c r="J234" s="4"/>
       <c r="K234" s="13"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>10</v>
       </c>
@@ -5353,7 +6177,7 @@
       <c r="J235" s="4"/>
       <c r="K235" s="13"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="2">
         <f t="shared" si="6"/>
@@ -5372,7 +6196,7 @@
       <c r="J236" s="4"/>
       <c r="K236" s="13"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>12</v>
       </c>
@@ -5395,7 +6219,7 @@
       <c r="J237" s="4"/>
       <c r="K237" s="13"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>13</v>
       </c>
@@ -5418,7 +6242,7 @@
       <c r="J238" s="4"/>
       <c r="K238" s="13"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="2">
         <f t="shared" si="6"/>
@@ -5437,7 +6261,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="13"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="2">
         <f t="shared" si="6"/>
@@ -5456,7 +6280,7 @@
       <c r="J240" s="4"/>
       <c r="K240" s="13"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="2">
         <f t="shared" si="6"/>
@@ -5475,7 +6299,7 @@
       <c r="J241" s="4"/>
       <c r="K241" s="13"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="2">
         <f t="shared" si="6"/>
@@ -5494,7 +6318,7 @@
       <c r="J242" s="4"/>
       <c r="K242" s="13"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="2">
         <f t="shared" si="6"/>
@@ -5513,7 +6337,7 @@
       <c r="J243" s="4"/>
       <c r="K243" s="13"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="2">
         <f t="shared" si="6"/>
@@ -5532,7 +6356,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="13"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>20</v>
       </c>
@@ -5555,7 +6379,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="13"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="2">
         <f t="shared" si="6"/>
@@ -5574,7 +6398,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="13"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="2">
         <f t="shared" si="6"/>
@@ -5593,7 +6417,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="13"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="2">
         <f t="shared" si="6"/>
@@ -5612,7 +6436,7 @@
       <c r="J248" s="4"/>
       <c r="K248" s="13"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="2">
         <f t="shared" si="6"/>
@@ -5631,7 +6455,7 @@
       <c r="J249" s="4"/>
       <c r="K249" s="13"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="2">
         <f t="shared" si="6"/>
@@ -5650,7 +6474,7 @@
       <c r="J250" s="4"/>
       <c r="K250" s="13"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="2">
         <f t="shared" si="6"/>
@@ -5669,7 +6493,7 @@
       <c r="J251" s="4"/>
       <c r="K251" s="13"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="B252" s="2">
         <f t="shared" si="6"/>
@@ -5688,7 +6512,7 @@
       <c r="J252" s="4"/>
       <c r="K252" s="13"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="2">
         <f t="shared" si="6"/>
@@ -5707,7 +6531,7 @@
       <c r="J253" s="4"/>
       <c r="K253" s="13"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="2">
         <f t="shared" si="6"/>
@@ -5726,7 +6550,7 @@
       <c r="J254" s="4"/>
       <c r="K254" s="13"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="2">
         <f t="shared" si="6"/>
@@ -5745,7 +6569,7 @@
       <c r="J255" s="4"/>
       <c r="K255" s="13"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="2">
         <f t="shared" si="6"/>
@@ -5764,7 +6588,7 @@
       <c r="J256" s="4"/>
       <c r="K256" s="13"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="2">
         <f t="shared" si="6"/>
@@ -5783,7 +6607,7 @@
       <c r="J257" s="4"/>
       <c r="K257" s="13"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="2">
         <f t="shared" si="6"/>
@@ -5802,7 +6626,7 @@
       <c r="J258" s="4"/>
       <c r="K258" s="13"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="B259" s="2">
         <f t="shared" si="6"/>
@@ -5821,7 +6645,7 @@
       <c r="J259" s="4"/>
       <c r="K259" s="13"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>35</v>
       </c>
@@ -5844,7 +6668,7 @@
       <c r="J260" s="4"/>
       <c r="K260" s="13"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>36</v>
       </c>
@@ -5877,7 +6701,7 @@
       </c>
       <c r="K261" s="13"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>37</v>
       </c>
@@ -5900,7 +6724,7 @@
       <c r="J262" s="4"/>
       <c r="K262" s="13"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>38</v>
       </c>
@@ -5933,7 +6757,7 @@
       </c>
       <c r="K263" s="13"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>39</v>
       </c>
@@ -5954,7 +6778,7 @@
       <c r="J264" s="4"/>
       <c r="K264" s="13"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>40</v>
       </c>
@@ -5975,7 +6799,7 @@
       <c r="J265" s="4"/>
       <c r="K265" s="13"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>41</v>
       </c>
@@ -5996,7 +6820,7 @@
       <c r="J266" s="4"/>
       <c r="K266" s="13"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>42</v>
       </c>
@@ -6019,7 +6843,7 @@
       <c r="J267" s="4"/>
       <c r="K267" s="13"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>43</v>
       </c>
@@ -6052,7 +6876,7 @@
       </c>
       <c r="K268" s="13"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>44</v>
       </c>
@@ -6073,7 +6897,7 @@
       <c r="J269" s="4"/>
       <c r="K269" s="13"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>45</v>
       </c>
@@ -6094,7 +6918,7 @@
       <c r="J270" s="4"/>
       <c r="K270" s="13"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>46</v>
       </c>
@@ -6117,7 +6941,7 @@
       <c r="J271" s="4"/>
       <c r="K271" s="13"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>47</v>
       </c>
@@ -6134,7 +6958,7 @@
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
-      <c r="G272" s="17">
+      <c r="G272" s="16">
         <v>0.65</v>
       </c>
       <c r="H272" s="4">
@@ -6151,7 +6975,7 @@
       </c>
       <c r="K272" s="13"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>48</v>
       </c>
@@ -6172,7 +6996,7 @@
       <c r="J273" s="4"/>
       <c r="K273" s="13"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>49</v>
       </c>
@@ -6195,7 +7019,7 @@
       <c r="J274" s="4"/>
       <c r="K274" s="13"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>50</v>
       </c>
@@ -6218,7 +7042,7 @@
       <c r="J275" s="4"/>
       <c r="K275" s="13"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>51</v>
       </c>
@@ -6251,7 +7075,7 @@
       </c>
       <c r="K276" s="13"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>52</v>
       </c>
@@ -6274,7 +7098,7 @@
       <c r="J277" s="4"/>
       <c r="K277" s="13"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>1</v>
       </c>
@@ -6308,7 +7132,7 @@
       </c>
       <c r="K278" s="13"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>2</v>
       </c>
@@ -6342,7 +7166,7 @@
       </c>
       <c r="K279" s="13"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>3</v>
       </c>
@@ -6363,7 +7187,7 @@
       <c r="J280" s="4"/>
       <c r="K280" s="13"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>4</v>
       </c>
@@ -6386,7 +7210,7 @@
       <c r="J281" s="4"/>
       <c r="K281" s="13"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>5</v>
       </c>
@@ -6407,20 +7231,20 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="H282" s="4">
-        <f>D282*G282</f>
+        <f t="shared" ref="H282:H290" si="10">D282*G282</f>
         <v>4999.0079999999998</v>
       </c>
       <c r="I282" s="5">
-        <f>100%-G282</f>
+        <f t="shared" ref="I282:I290" si="11">100%-G282</f>
         <v>0.31200000000000006</v>
       </c>
       <c r="J282" s="4">
-        <f>D282-H282</f>
+        <f t="shared" ref="J282:J290" si="12">D282-H282</f>
         <v>2266.9920000000002</v>
       </c>
       <c r="K282" s="13"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>6</v>
       </c>
@@ -6441,20 +7265,20 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="H283" s="4">
-        <f>D283*G283</f>
+        <f t="shared" si="10"/>
         <v>4964.6079999999993</v>
       </c>
       <c r="I283" s="5">
-        <f>100%-G283</f>
+        <f t="shared" si="11"/>
         <v>0.31200000000000006</v>
       </c>
       <c r="J283" s="4">
-        <f>D283-H283</f>
+        <f t="shared" si="12"/>
         <v>2251.3920000000007</v>
       </c>
       <c r="K283" s="13"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>7</v>
       </c>
@@ -6475,20 +7299,20 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="H284" s="4">
-        <f>D284*G284</f>
+        <f t="shared" si="10"/>
         <v>4553.55</v>
       </c>
       <c r="I284" s="5">
-        <f>100%-G284</f>
+        <f t="shared" si="11"/>
         <v>0.32499999999999996</v>
       </c>
       <c r="J284" s="4">
-        <f>D284-H284</f>
+        <f t="shared" si="12"/>
         <v>2192.4499999999998</v>
       </c>
       <c r="K284" s="13"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>8</v>
       </c>
@@ -6509,20 +7333,20 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="H285" s="4">
-        <f>D285*G285</f>
+        <f t="shared" si="10"/>
         <v>3639.9320000000002</v>
       </c>
       <c r="I285" s="5">
-        <f>100%-G285</f>
+        <f t="shared" si="11"/>
         <v>0.33199999999999996</v>
       </c>
       <c r="J285" s="4">
-        <f>D285-H285</f>
+        <f t="shared" si="12"/>
         <v>1809.0679999999998</v>
       </c>
       <c r="K285" s="13"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>9</v>
       </c>
@@ -6539,24 +7363,24 @@
       </c>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
-      <c r="G286" s="17">
+      <c r="G286" s="16">
         <v>0.67</v>
       </c>
       <c r="H286" s="4">
-        <f>D286*G286</f>
+        <f t="shared" si="10"/>
         <v>4407.26</v>
       </c>
       <c r="I286" s="5">
-        <f>100%-G286</f>
+        <f t="shared" si="11"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="J286" s="4">
-        <f>D286-H286</f>
+        <f t="shared" si="12"/>
         <v>2170.7399999999998</v>
       </c>
       <c r="K286" s="13"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>10</v>
       </c>
@@ -6577,20 +7401,20 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="H287" s="4">
-        <f>D287*G287</f>
+        <f t="shared" si="10"/>
         <v>3280.9919999999997</v>
       </c>
       <c r="I287" s="5">
-        <f>100%-G287</f>
+        <f t="shared" si="11"/>
         <v>0.28300000000000003</v>
       </c>
       <c r="J287" s="4">
-        <f>D287-H287</f>
+        <f t="shared" si="12"/>
         <v>1295.0080000000003</v>
       </c>
       <c r="K287" s="13"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>11</v>
       </c>
@@ -6611,20 +7435,20 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="H288" s="4">
-        <f>D288*G288</f>
+        <f t="shared" si="10"/>
         <v>4451.9719999999998</v>
       </c>
       <c r="I288" s="5">
-        <f>100%-G288</f>
+        <f t="shared" si="11"/>
         <v>0.28700000000000003</v>
       </c>
       <c r="J288" s="4">
-        <f>D288-H288</f>
+        <f t="shared" si="12"/>
         <v>1792.0280000000002</v>
       </c>
       <c r="K288" s="13"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>12</v>
       </c>
@@ -6641,24 +7465,24 @@
       </c>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
-      <c r="G289" s="17">
+      <c r="G289" s="16">
         <v>0.7</v>
       </c>
       <c r="H289" s="4">
-        <f>D289*G289</f>
+        <f t="shared" si="10"/>
         <v>2840.6</v>
       </c>
       <c r="I289" s="5">
-        <f>100%-G289</f>
+        <f t="shared" si="11"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J289" s="4">
-        <f>D289-H289</f>
+        <f t="shared" si="12"/>
         <v>1217.4000000000001</v>
       </c>
       <c r="K289" s="13"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>13</v>
       </c>
@@ -6679,20 +7503,20 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="H290" s="4">
-        <f>D290*G290</f>
+        <f t="shared" si="10"/>
         <v>3422.2019999999998</v>
       </c>
       <c r="I290" s="5">
-        <f>100%-G290</f>
+        <f t="shared" si="11"/>
         <v>0.28600000000000003</v>
       </c>
       <c r="J290" s="4">
-        <f>D290-H290</f>
+        <f t="shared" si="12"/>
         <v>1370.7980000000002</v>
       </c>
       <c r="K290" s="13"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="2">
         <f t="shared" si="8"/>
@@ -6711,7 +7535,7 @@
       <c r="J291" s="4"/>
       <c r="K291" s="13"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="2">
         <f t="shared" si="8"/>
@@ -6730,7 +7554,7 @@
       <c r="J292" s="4"/>
       <c r="K292" s="13"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>16</v>
       </c>
@@ -6753,7 +7577,7 @@
       <c r="J293" s="4"/>
       <c r="K293" s="13"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>17</v>
       </c>
@@ -6787,7 +7611,7 @@
       </c>
       <c r="K294" s="13"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="2">
         <f t="shared" si="8"/>
@@ -6806,7 +7630,7 @@
       <c r="J295" s="4"/>
       <c r="K295" s="13"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="2">
         <f t="shared" si="8"/>
@@ -6825,7 +7649,7 @@
       <c r="J296" s="4"/>
       <c r="K296" s="13"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="2">
         <f t="shared" si="8"/>
@@ -6844,7 +7668,7 @@
       <c r="J297" s="4"/>
       <c r="K297" s="13"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="2">
         <f t="shared" si="8"/>
@@ -6863,7 +7687,7 @@
       <c r="J298" s="4"/>
       <c r="K298" s="13"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="2">
         <f t="shared" si="8"/>
@@ -6882,7 +7706,7 @@
       <c r="J299" s="4"/>
       <c r="K299" s="13"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="2">
         <f t="shared" si="8"/>
@@ -6901,7 +7725,7 @@
       <c r="J300" s="4"/>
       <c r="K300" s="13"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="2">
         <f t="shared" si="8"/>
@@ -6920,7 +7744,7 @@
       <c r="J301" s="4"/>
       <c r="K301" s="13"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="2">
         <f t="shared" si="8"/>
@@ -6939,7 +7763,7 @@
       <c r="J302" s="4"/>
       <c r="K302" s="13"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="2">
         <f t="shared" si="8"/>
@@ -6958,7 +7782,7 @@
       <c r="J303" s="4"/>
       <c r="K303" s="13"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="2">
         <f t="shared" si="8"/>
@@ -6977,7 +7801,7 @@
       <c r="J304" s="4"/>
       <c r="K304" s="13"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="2">
         <f t="shared" si="8"/>
@@ -6996,7 +7820,7 @@
       <c r="J305" s="4"/>
       <c r="K305" s="13"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="2">
         <f t="shared" si="8"/>
@@ -7015,7 +7839,7 @@
       <c r="J306" s="4"/>
       <c r="K306" s="13"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="2">
         <f t="shared" si="8"/>
@@ -7034,7 +7858,7 @@
       <c r="J307" s="4"/>
       <c r="K307" s="13"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="2">
         <f t="shared" si="8"/>
@@ -7053,7 +7877,7 @@
       <c r="J308" s="4"/>
       <c r="K308" s="13"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="2">
         <f>C308+1</f>
@@ -7072,14 +7896,14 @@
       <c r="J309" s="4"/>
       <c r="K309" s="13"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="2">
-        <f t="shared" ref="B310:B373" si="10">C309+1</f>
+        <f t="shared" ref="B310:B373" si="13">C309+1</f>
         <v>45516</v>
       </c>
       <c r="C310" s="2">
-        <f t="shared" ref="C310:C373" si="11">B310+6</f>
+        <f t="shared" ref="C310:C373" si="14">B310+6</f>
         <v>45522</v>
       </c>
       <c r="D310" s="11"/>
@@ -7091,14 +7915,14 @@
       <c r="J310" s="4"/>
       <c r="K310" s="13"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45523</v>
       </c>
       <c r="C311" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45529</v>
       </c>
       <c r="D311" s="11"/>
@@ -7110,14 +7934,14 @@
       <c r="J311" s="4"/>
       <c r="K311" s="13"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45530</v>
       </c>
       <c r="C312" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45536</v>
       </c>
       <c r="D312" s="11"/>
@@ -7129,14 +7953,14 @@
       <c r="J312" s="4"/>
       <c r="K312" s="13"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45537</v>
       </c>
       <c r="C313" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45543</v>
       </c>
       <c r="D313" s="11"/>
@@ -7148,14 +7972,14 @@
       <c r="J313" s="4"/>
       <c r="K313" s="13"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45544</v>
       </c>
       <c r="C314" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45550</v>
       </c>
       <c r="D314" s="11"/>
@@ -7167,14 +7991,14 @@
       <c r="J314" s="4"/>
       <c r="K314" s="13"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45551</v>
       </c>
       <c r="C315" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45557</v>
       </c>
       <c r="D315" s="11"/>
@@ -7186,14 +8010,14 @@
       <c r="J315" s="4"/>
       <c r="K315" s="13"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45558</v>
       </c>
       <c r="C316" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45564</v>
       </c>
       <c r="D316" s="11"/>
@@ -7205,14 +8029,14 @@
       <c r="J316" s="4"/>
       <c r="K316" s="13"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45565</v>
       </c>
       <c r="C317" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45571</v>
       </c>
       <c r="D317" s="11"/>
@@ -7224,14 +8048,14 @@
       <c r="J317" s="4"/>
       <c r="K317" s="13"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45572</v>
       </c>
       <c r="C318" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45578</v>
       </c>
       <c r="D318" s="11"/>
@@ -7243,14 +8067,14 @@
       <c r="J318" s="4"/>
       <c r="K318" s="13"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45579</v>
       </c>
       <c r="C319" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45585</v>
       </c>
       <c r="D319" s="11"/>
@@ -7262,14 +8086,14 @@
       <c r="J319" s="4"/>
       <c r="K319" s="13"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45586</v>
       </c>
       <c r="C320" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45592</v>
       </c>
       <c r="D320" s="11"/>
@@ -7281,14 +8105,14 @@
       <c r="J320" s="4"/>
       <c r="K320" s="13"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45593</v>
       </c>
       <c r="C321" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45599</v>
       </c>
       <c r="D321" s="11"/>
@@ -7300,14 +8124,14 @@
       <c r="J321" s="4"/>
       <c r="K321" s="13"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45600</v>
       </c>
       <c r="C322" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45606</v>
       </c>
       <c r="D322" s="11"/>
@@ -7319,14 +8143,14 @@
       <c r="J322" s="4"/>
       <c r="K322" s="13"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45607</v>
       </c>
       <c r="C323" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45613</v>
       </c>
       <c r="D323" s="11"/>
@@ -7338,14 +8162,14 @@
       <c r="J323" s="4"/>
       <c r="K323" s="13"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45614</v>
       </c>
       <c r="C324" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45620</v>
       </c>
       <c r="D324" s="11"/>
@@ -7357,16 +8181,16 @@
       <c r="J324" s="4"/>
       <c r="K324" s="13"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>48</v>
       </c>
       <c r="B325" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45621</v>
       </c>
       <c r="C325" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45627</v>
       </c>
       <c r="D325" s="11">
@@ -7380,16 +8204,16 @@
       <c r="J325" s="4"/>
       <c r="K325" s="13"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>49</v>
       </c>
       <c r="B326" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45628</v>
       </c>
       <c r="C326" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45634</v>
       </c>
       <c r="D326" s="11">
@@ -7419,14 +8243,14 @@
       </c>
       <c r="K326" s="13"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45635</v>
       </c>
       <c r="C327" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45641</v>
       </c>
       <c r="D327" s="11"/>
@@ -7438,14 +8262,14 @@
       <c r="J327" s="4"/>
       <c r="K327" s="13"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45642</v>
       </c>
       <c r="C328" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45648</v>
       </c>
       <c r="D328" s="11"/>
@@ -7457,14 +8281,14 @@
       <c r="J328" s="4"/>
       <c r="K328" s="13"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45649</v>
       </c>
       <c r="C329" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45655</v>
       </c>
       <c r="D329" s="11"/>
@@ -7476,16 +8300,16 @@
       <c r="J329" s="4"/>
       <c r="K329" s="13"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>1</v>
       </c>
       <c r="B330" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45656</v>
       </c>
       <c r="C330" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45662</v>
       </c>
       <c r="D330" s="11">
@@ -7504,16 +8328,16 @@
       <c r="J330" s="4"/>
       <c r="K330" s="13"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>2</v>
       </c>
       <c r="B331" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45663</v>
       </c>
       <c r="C331" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45669</v>
       </c>
       <c r="D331" s="11">
@@ -7527,16 +8351,16 @@
       <c r="J331" s="4"/>
       <c r="K331" s="13"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>3</v>
       </c>
       <c r="B332" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45670</v>
       </c>
       <c r="C332" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45676</v>
       </c>
       <c r="D332" s="11">
@@ -7555,14 +8379,14 @@
       <c r="J332" s="4"/>
       <c r="K332" s="13"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45677</v>
       </c>
       <c r="C333" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45683</v>
       </c>
       <c r="D333" s="11"/>
@@ -7574,14 +8398,14 @@
       <c r="J333" s="4"/>
       <c r="K333" s="13"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45684</v>
       </c>
       <c r="C334" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45690</v>
       </c>
       <c r="D334" s="11"/>
@@ -7593,14 +8417,14 @@
       <c r="J334" s="4"/>
       <c r="K334" s="13"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45691</v>
       </c>
       <c r="C335" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45697</v>
       </c>
       <c r="D335" s="11"/>
@@ -7612,14 +8436,14 @@
       <c r="J335" s="4"/>
       <c r="K335" s="13"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45698</v>
       </c>
       <c r="C336" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45704</v>
       </c>
       <c r="D336" s="11"/>
@@ -7631,16 +8455,16 @@
       <c r="J336" s="4"/>
       <c r="K336" s="13"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>8</v>
       </c>
       <c r="B337" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45705</v>
       </c>
       <c r="C337" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45711</v>
       </c>
       <c r="D337" s="11">
@@ -7654,16 +8478,16 @@
       <c r="J337" s="4"/>
       <c r="K337" s="13"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>9</v>
       </c>
       <c r="B338" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45712</v>
       </c>
       <c r="C338" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45718</v>
       </c>
       <c r="D338" s="11">
@@ -7693,14 +8517,14 @@
       </c>
       <c r="K338" s="13"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45719</v>
       </c>
       <c r="C339" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45725</v>
       </c>
       <c r="D339" s="11"/>
@@ -7712,14 +8536,14 @@
       <c r="J339" s="4"/>
       <c r="K339" s="13"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45726</v>
       </c>
       <c r="C340" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45732</v>
       </c>
       <c r="D340" s="11"/>
@@ -7731,14 +8555,14 @@
       <c r="J340" s="4"/>
       <c r="K340" s="13"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45733</v>
       </c>
       <c r="C341" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45739</v>
       </c>
       <c r="D341" s="11"/>
@@ -7750,14 +8574,14 @@
       <c r="J341" s="4"/>
       <c r="K341" s="13"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45740</v>
       </c>
       <c r="C342" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45746</v>
       </c>
       <c r="D342" s="11"/>
@@ -7769,14 +8593,14 @@
       <c r="J342" s="4"/>
       <c r="K342" s="13"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45747</v>
       </c>
       <c r="C343" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45753</v>
       </c>
       <c r="D343" s="11"/>
@@ -7788,14 +8612,14 @@
       <c r="J343" s="4"/>
       <c r="K343" s="13"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45754</v>
       </c>
       <c r="C344" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45760</v>
       </c>
       <c r="D344" s="11"/>
@@ -7807,14 +8631,14 @@
       <c r="J344" s="4"/>
       <c r="K344" s="13"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="B345" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45761</v>
       </c>
       <c r="C345" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45767</v>
       </c>
       <c r="D345" s="11"/>
@@ -7826,14 +8650,14 @@
       <c r="J345" s="4"/>
       <c r="K345" s="13"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45768</v>
       </c>
       <c r="C346" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45774</v>
       </c>
       <c r="D346" s="11"/>
@@ -7845,14 +8669,14 @@
       <c r="J346" s="4"/>
       <c r="K346" s="13"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45775</v>
       </c>
       <c r="C347" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45781</v>
       </c>
       <c r="D347" s="11"/>
@@ -7864,14 +8688,14 @@
       <c r="J347" s="4"/>
       <c r="K347" s="13"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45782</v>
       </c>
       <c r="C348" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45788</v>
       </c>
       <c r="D348" s="11"/>
@@ -7883,14 +8707,14 @@
       <c r="J348" s="4"/>
       <c r="K348" s="13"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45789</v>
       </c>
       <c r="C349" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45795</v>
       </c>
       <c r="D349" s="11"/>
@@ -7902,14 +8726,14 @@
       <c r="J349" s="4"/>
       <c r="K349" s="13"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45796</v>
       </c>
       <c r="C350" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45802</v>
       </c>
       <c r="D350" s="11"/>
@@ -7921,14 +8745,14 @@
       <c r="J350" s="4"/>
       <c r="K350" s="13"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45803</v>
       </c>
       <c r="C351" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45809</v>
       </c>
       <c r="D351" s="11"/>
@@ -7940,14 +8764,14 @@
       <c r="J351" s="4"/>
       <c r="K351" s="13"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45810</v>
       </c>
       <c r="C352" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45816</v>
       </c>
       <c r="D352" s="11"/>
@@ -7959,14 +8783,14 @@
       <c r="J352" s="4"/>
       <c r="K352" s="13"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45817</v>
       </c>
       <c r="C353" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45823</v>
       </c>
       <c r="D353" s="11"/>
@@ -7978,14 +8802,14 @@
       <c r="J353" s="4"/>
       <c r="K353" s="13"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45824</v>
       </c>
       <c r="C354" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45830</v>
       </c>
       <c r="D354" s="11"/>
@@ -7997,14 +8821,14 @@
       <c r="J354" s="4"/>
       <c r="K354" s="13"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45831</v>
       </c>
       <c r="C355" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45837</v>
       </c>
       <c r="D355" s="11"/>
@@ -8016,14 +8840,14 @@
       <c r="J355" s="4"/>
       <c r="K355" s="13"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45838</v>
       </c>
       <c r="C356" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45844</v>
       </c>
       <c r="D356" s="11"/>
@@ -8035,14 +8859,14 @@
       <c r="J356" s="4"/>
       <c r="K356" s="13"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45845</v>
       </c>
       <c r="C357" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45851</v>
       </c>
       <c r="D357" s="11"/>
@@ -8054,14 +8878,14 @@
       <c r="J357" s="4"/>
       <c r="K357" s="13"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45852</v>
       </c>
       <c r="C358" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45858</v>
       </c>
       <c r="D358" s="11"/>
@@ -8073,14 +8897,14 @@
       <c r="J358" s="4"/>
       <c r="K358" s="13"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45859</v>
       </c>
       <c r="C359" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45865</v>
       </c>
       <c r="D359" s="11"/>
@@ -8092,14 +8916,14 @@
       <c r="J359" s="4"/>
       <c r="K359" s="13"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45866</v>
       </c>
       <c r="C360" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45872</v>
       </c>
       <c r="D360" s="11"/>
@@ -8111,14 +8935,14 @@
       <c r="J360" s="4"/>
       <c r="K360" s="13"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45873</v>
       </c>
       <c r="C361" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45879</v>
       </c>
       <c r="D361" s="11"/>
@@ -8130,14 +8954,14 @@
       <c r="J361" s="4"/>
       <c r="K361" s="13"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45880</v>
       </c>
       <c r="C362" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45886</v>
       </c>
       <c r="D362" s="11"/>
@@ -8149,14 +8973,14 @@
       <c r="J362" s="4"/>
       <c r="K362" s="13"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45887</v>
       </c>
       <c r="C363" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45893</v>
       </c>
       <c r="D363" s="11"/>
@@ -8168,14 +8992,14 @@
       <c r="J363" s="4"/>
       <c r="K363" s="13"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45894</v>
       </c>
       <c r="C364" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45900</v>
       </c>
       <c r="D364" s="11"/>
@@ -8187,14 +9011,14 @@
       <c r="J364" s="4"/>
       <c r="K364" s="13"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45901</v>
       </c>
       <c r="C365" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45907</v>
       </c>
       <c r="D365" s="11"/>
@@ -8206,14 +9030,14 @@
       <c r="J365" s="4"/>
       <c r="K365" s="13"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45908</v>
       </c>
       <c r="C366" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45914</v>
       </c>
       <c r="D366" s="11"/>
@@ -8225,14 +9049,14 @@
       <c r="J366" s="4"/>
       <c r="K366" s="13"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45915</v>
       </c>
       <c r="C367" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45921</v>
       </c>
       <c r="D367" s="11"/>
@@ -8244,14 +9068,14 @@
       <c r="J367" s="4"/>
       <c r="K367" s="13"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45922</v>
       </c>
       <c r="C368" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45928</v>
       </c>
       <c r="D368" s="11"/>
@@ -8263,14 +9087,14 @@
       <c r="J368" s="4"/>
       <c r="K368" s="13"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45929</v>
       </c>
       <c r="C369" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45935</v>
       </c>
       <c r="D369" s="11"/>
@@ -8282,14 +9106,14 @@
       <c r="J369" s="4"/>
       <c r="K369" s="13"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45936</v>
       </c>
       <c r="C370" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45942</v>
       </c>
       <c r="D370" s="11"/>
@@ -8301,14 +9125,14 @@
       <c r="J370" s="4"/>
       <c r="K370" s="13"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45943</v>
       </c>
       <c r="C371" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45949</v>
       </c>
       <c r="D371" s="11"/>
@@ -8320,14 +9144,14 @@
       <c r="J371" s="4"/>
       <c r="K371" s="13"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45950</v>
       </c>
       <c r="C372" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45956</v>
       </c>
       <c r="D372" s="11"/>
@@ -8339,14 +9163,14 @@
       <c r="J372" s="4"/>
       <c r="K372" s="13"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45957</v>
       </c>
       <c r="C373" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>45963</v>
       </c>
       <c r="D373" s="11"/>
@@ -8358,14 +9182,14 @@
       <c r="J373" s="4"/>
       <c r="K373" s="13"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="2">
-        <f t="shared" ref="B374:B382" si="12">C373+1</f>
+        <f t="shared" ref="B374:B382" si="15">C373+1</f>
         <v>45964</v>
       </c>
       <c r="C374" s="2">
-        <f t="shared" ref="C374:C382" si="13">B374+6</f>
+        <f t="shared" ref="C374:C382" si="16">B374+6</f>
         <v>45970</v>
       </c>
       <c r="D374" s="11"/>
@@ -8377,14 +9201,14 @@
       <c r="J374" s="4"/>
       <c r="K374" s="13"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>45971</v>
       </c>
       <c r="C375" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45977</v>
       </c>
       <c r="D375" s="11"/>
@@ -8396,14 +9220,14 @@
       <c r="J375" s="4"/>
       <c r="K375" s="13"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>45978</v>
       </c>
       <c r="C376" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45984</v>
       </c>
       <c r="D376" s="11"/>
@@ -8415,14 +9239,14 @@
       <c r="J376" s="4"/>
       <c r="K376" s="13"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>45985</v>
       </c>
       <c r="C377" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45991</v>
       </c>
       <c r="D377" s="11"/>
@@ -8434,14 +9258,14 @@
       <c r="J377" s="4"/>
       <c r="K377" s="13"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>45992</v>
       </c>
       <c r="C378" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45998</v>
       </c>
       <c r="D378" s="11"/>
@@ -8453,14 +9277,14 @@
       <c r="J378" s="4"/>
       <c r="K378" s="13"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>45999</v>
       </c>
       <c r="C379" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46005</v>
       </c>
       <c r="D379" s="11"/>
@@ -8472,14 +9296,14 @@
       <c r="J379" s="4"/>
       <c r="K379" s="13"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>46006</v>
       </c>
       <c r="C380" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46012</v>
       </c>
       <c r="D380" s="11"/>
@@ -8491,14 +9315,14 @@
       <c r="J380" s="4"/>
       <c r="K380" s="13"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>46013</v>
       </c>
       <c r="C381" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46019</v>
       </c>
       <c r="D381" s="11"/>
@@ -8510,14 +9334,14 @@
       <c r="J381" s="4"/>
       <c r="K381" s="13"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>46020</v>
       </c>
       <c r="C382" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46026</v>
       </c>
       <c r="D382" s="11"/>
@@ -8529,319 +9353,328 @@
       <c r="J382" s="4"/>
       <c r="K382" s="13"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:K382" xr:uid="{E775B61A-065B-4678-BD34-74055DC2223A}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D2:J2"/>
@@ -8856,12 +9689,3661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D489E128-04AA-4D9D-8356-0DFD7CF1ED93}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K60" sqref="A55:K60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="11" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19">
+        <v>10220.1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>11269.2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>11424.6</v>
+      </c>
+      <c r="E4" s="19">
+        <v>11294.9</v>
+      </c>
+      <c r="F4" s="19">
+        <v>9669.7000000000007</v>
+      </c>
+      <c r="G4" s="19">
+        <v>8641.2999999999993</v>
+      </c>
+      <c r="H4" s="19">
+        <v>8630.9</v>
+      </c>
+      <c r="I4" s="19">
+        <v>8731.2999999999993</v>
+      </c>
+      <c r="J4" s="19">
+        <v>8821.2000000000007</v>
+      </c>
+      <c r="K4" s="19">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19">
+        <v>9489.6</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7692.5</v>
+      </c>
+      <c r="D5" s="19">
+        <v>7991.8</v>
+      </c>
+      <c r="E5" s="19">
+        <v>8304.7000000000007</v>
+      </c>
+      <c r="F5" s="19">
+        <v>6911.3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>11561</v>
+      </c>
+      <c r="H5" s="19">
+        <v>10006.6</v>
+      </c>
+      <c r="I5" s="19">
+        <v>9777.5</v>
+      </c>
+      <c r="J5" s="19">
+        <v>9967.2999999999993</v>
+      </c>
+      <c r="K5" s="19">
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="19">
+        <v>6142.1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5314.8</v>
+      </c>
+      <c r="D6" s="19">
+        <v>7155.1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>7412</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5921.2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>5880</v>
+      </c>
+      <c r="H6" s="19">
+        <v>6047.3</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5858.9</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5545.5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="19">
+        <v>8401.7000000000007</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10603.6</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9716.2999999999993</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8925.7000000000007</v>
+      </c>
+      <c r="F7" s="19">
+        <v>7636.7</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7111.7</v>
+      </c>
+      <c r="H7" s="19">
+        <v>7410</v>
+      </c>
+      <c r="I7" s="19">
+        <v>6439</v>
+      </c>
+      <c r="J7" s="19">
+        <v>6396.7</v>
+      </c>
+      <c r="K7" s="19">
+        <v>6654.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19">
+        <v>7301.9</v>
+      </c>
+      <c r="C8" s="19">
+        <v>7968.9</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="19">
+        <v>8381.9</v>
+      </c>
+      <c r="F8" s="19">
+        <v>7189.1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7317.5</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6330.7</v>
+      </c>
+      <c r="I8" s="19">
+        <v>5565</v>
+      </c>
+      <c r="J8" s="19">
+        <v>6329.6</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6311.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="19">
+        <v>8081.7</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8805.9</v>
+      </c>
+      <c r="D9" s="19">
+        <v>7912.2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>6873.1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>5686.3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>5836.7</v>
+      </c>
+      <c r="H9" s="19">
+        <v>5837.5</v>
+      </c>
+      <c r="I9" s="19">
+        <v>6143.7</v>
+      </c>
+      <c r="J9" s="19">
+        <v>6355.7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>6151.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19">
+        <v>5645.1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>7055.7</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5020.8999999999996</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4524.8999999999996</v>
+      </c>
+      <c r="F10" s="19">
+        <v>4073.9</v>
+      </c>
+      <c r="G10" s="19">
+        <v>4553.2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>4138.3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>4122.3</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3363.5</v>
+      </c>
+      <c r="K10" s="19">
+        <v>4323.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="19">
+        <v>11268.9</v>
+      </c>
+      <c r="C11" s="19">
+        <v>11321</v>
+      </c>
+      <c r="D11" s="19">
+        <v>11947.1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>11780.1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>9267.9</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10770.3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10324.5</v>
+      </c>
+      <c r="I11" s="19">
+        <v>10202.5</v>
+      </c>
+      <c r="J11" s="19">
+        <v>10905</v>
+      </c>
+      <c r="K11" s="19">
+        <v>9985.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="19">
+        <v>19331.7</v>
+      </c>
+      <c r="C12" s="19">
+        <v>23968.799999999999</v>
+      </c>
+      <c r="D12" s="19">
+        <v>24897</v>
+      </c>
+      <c r="E12" s="19">
+        <v>25238.1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>23079.4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>14746</v>
+      </c>
+      <c r="H12" s="19">
+        <v>15666</v>
+      </c>
+      <c r="I12" s="19">
+        <v>16829.2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>16410.2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>17106.400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19">
+        <v>11939.7</v>
+      </c>
+      <c r="C13" s="19">
+        <v>15889.8</v>
+      </c>
+      <c r="D13" s="19">
+        <v>13812.9</v>
+      </c>
+      <c r="E13" s="19">
+        <v>14077.2</v>
+      </c>
+      <c r="F13" s="19">
+        <v>11911.2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>7173.5</v>
+      </c>
+      <c r="H13" s="19">
+        <v>8175.2</v>
+      </c>
+      <c r="I13" s="19">
+        <v>8915.4</v>
+      </c>
+      <c r="J13" s="19">
+        <v>10021.4</v>
+      </c>
+      <c r="K13" s="19">
+        <v>9469.7000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="30">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="30">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="30">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="27">
+        <v>593804</v>
+      </c>
+      <c r="C19" s="27">
+        <v>531940</v>
+      </c>
+      <c r="D19" s="27">
+        <v>406435</v>
+      </c>
+      <c r="E19" s="27">
+        <v>596442</v>
+      </c>
+      <c r="F19" s="27">
+        <v>687141</v>
+      </c>
+      <c r="G19" s="27">
+        <v>627181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="27">
+        <v>29488</v>
+      </c>
+      <c r="C20" s="27">
+        <v>26479</v>
+      </c>
+      <c r="D20" s="27">
+        <v>21289</v>
+      </c>
+      <c r="E20" s="27">
+        <v>26554</v>
+      </c>
+      <c r="F20" s="27">
+        <v>28310</v>
+      </c>
+      <c r="G20" s="27">
+        <v>26370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="27">
+        <v>80993</v>
+      </c>
+      <c r="C21" s="27">
+        <v>65822</v>
+      </c>
+      <c r="D21" s="27">
+        <v>54848</v>
+      </c>
+      <c r="E21" s="27">
+        <v>81683</v>
+      </c>
+      <c r="F21" s="27">
+        <v>98503</v>
+      </c>
+      <c r="G21" s="27">
+        <v>96305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="27">
+        <v>37908</v>
+      </c>
+      <c r="C22" s="27">
+        <v>33686</v>
+      </c>
+      <c r="D22" s="27">
+        <v>38588</v>
+      </c>
+      <c r="E22" s="27">
+        <v>45015</v>
+      </c>
+      <c r="F22" s="27">
+        <v>51148</v>
+      </c>
+      <c r="G22" s="27">
+        <v>43324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="27">
+        <v>19485</v>
+      </c>
+      <c r="C23" s="27">
+        <v>16363</v>
+      </c>
+      <c r="D23" s="27">
+        <v>13967</v>
+      </c>
+      <c r="E23" s="27">
+        <v>21257</v>
+      </c>
+      <c r="F23" s="27">
+        <v>24359</v>
+      </c>
+      <c r="G23" s="27">
+        <v>24156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="27">
+        <v>50916</v>
+      </c>
+      <c r="C24" s="27">
+        <v>50428</v>
+      </c>
+      <c r="D24" s="27">
+        <v>34028</v>
+      </c>
+      <c r="E24" s="27">
+        <v>57763</v>
+      </c>
+      <c r="F24" s="27">
+        <v>58870</v>
+      </c>
+      <c r="G24" s="27">
+        <v>49178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="27">
+        <v>10234</v>
+      </c>
+      <c r="C25" s="27">
+        <v>9293</v>
+      </c>
+      <c r="D25" s="27">
+        <v>9584</v>
+      </c>
+      <c r="E25" s="27">
+        <v>12294</v>
+      </c>
+      <c r="F25" s="27">
+        <v>14013</v>
+      </c>
+      <c r="G25" s="27">
+        <v>11794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="27">
+        <v>98542</v>
+      </c>
+      <c r="C26" s="27">
+        <v>82024</v>
+      </c>
+      <c r="D26" s="27">
+        <v>62609</v>
+      </c>
+      <c r="E26" s="27">
+        <v>104316</v>
+      </c>
+      <c r="F26" s="27">
+        <v>129245</v>
+      </c>
+      <c r="G26" s="27">
+        <v>120349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="27">
+        <v>230967</v>
+      </c>
+      <c r="C27" s="27">
+        <v>216876</v>
+      </c>
+      <c r="D27" s="27">
+        <v>152512</v>
+      </c>
+      <c r="E27" s="27">
+        <v>217211</v>
+      </c>
+      <c r="F27" s="27">
+        <v>253757</v>
+      </c>
+      <c r="G27" s="27">
+        <v>230391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="27">
+        <v>32512</v>
+      </c>
+      <c r="C28" s="27">
+        <v>28632</v>
+      </c>
+      <c r="D28" s="27">
+        <v>16655</v>
+      </c>
+      <c r="E28" s="27">
+        <v>27789</v>
+      </c>
+      <c r="F28" s="27">
+        <v>26851</v>
+      </c>
+      <c r="G28" s="27">
+        <v>22581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="28" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="27">
+        <v>2759</v>
+      </c>
+      <c r="C29" s="27">
+        <v>2337</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2355</v>
+      </c>
+      <c r="E29" s="27">
+        <v>2560</v>
+      </c>
+      <c r="F29" s="27">
+        <v>2085</v>
+      </c>
+      <c r="G29" s="27">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2016</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F34" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G34" s="15">
+        <v>2015</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2016</v>
+      </c>
+      <c r="I34" s="15">
+        <v>2017</v>
+      </c>
+      <c r="J34" s="15">
+        <v>2018</v>
+      </c>
+      <c r="K34" s="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="21">
+        <v>267.5</v>
+      </c>
+      <c r="C35" s="21">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="D35" s="21">
+        <v>294</v>
+      </c>
+      <c r="E35" s="21">
+        <v>307</v>
+      </c>
+      <c r="F35" s="21">
+        <v>302.7</v>
+      </c>
+      <c r="G35" s="21">
+        <v>251.4</v>
+      </c>
+      <c r="H35" s="21">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="I35" s="21">
+        <v>274.3</v>
+      </c>
+      <c r="J35" s="21">
+        <v>285.7</v>
+      </c>
+      <c r="K35" s="21">
+        <v>283.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="21">
+        <v>48.6</v>
+      </c>
+      <c r="C36" s="21">
+        <v>46.8</v>
+      </c>
+      <c r="D36" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="E36" s="21">
+        <v>42.5</v>
+      </c>
+      <c r="F36" s="21">
+        <v>44</v>
+      </c>
+      <c r="G36" s="21">
+        <v>41.6</v>
+      </c>
+      <c r="H36" s="21">
+        <v>39.6</v>
+      </c>
+      <c r="I36" s="21">
+        <v>35.6</v>
+      </c>
+      <c r="J36" s="21">
+        <v>36</v>
+      </c>
+      <c r="K36" s="21">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="21">
+        <v>251.8</v>
+      </c>
+      <c r="C37" s="21">
+        <v>251.7</v>
+      </c>
+      <c r="D37" s="21">
+        <v>255.4</v>
+      </c>
+      <c r="E37" s="21">
+        <v>253.9</v>
+      </c>
+      <c r="F37" s="21">
+        <v>258.2</v>
+      </c>
+      <c r="G37" s="21">
+        <v>177.8</v>
+      </c>
+      <c r="H37" s="21">
+        <v>180</v>
+      </c>
+      <c r="I37" s="21">
+        <v>179.6</v>
+      </c>
+      <c r="J37" s="21">
+        <v>182.9</v>
+      </c>
+      <c r="K37" s="21">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C42" s="15">
+        <v>2016</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E42" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F42" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G42" s="15">
+        <v>2015</v>
+      </c>
+      <c r="H42" s="15">
+        <v>2016</v>
+      </c>
+      <c r="I42" s="15">
+        <v>2017</v>
+      </c>
+      <c r="J42" s="15">
+        <v>2018</v>
+      </c>
+      <c r="K42" s="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="21">
+        <v>143</v>
+      </c>
+      <c r="C43" s="21">
+        <v>144</v>
+      </c>
+      <c r="D43" s="21">
+        <v>149</v>
+      </c>
+      <c r="E43" s="21">
+        <v>150</v>
+      </c>
+      <c r="F43" s="21">
+        <v>140</v>
+      </c>
+      <c r="G43" s="21">
+        <v>15</v>
+      </c>
+      <c r="H43" s="21">
+        <v>25</v>
+      </c>
+      <c r="I43" s="21">
+        <v>25</v>
+      </c>
+      <c r="J43" s="21">
+        <v>27</v>
+      </c>
+      <c r="K43" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="21">
+        <v>91</v>
+      </c>
+      <c r="C44" s="21">
+        <v>74</v>
+      </c>
+      <c r="D44" s="21">
+        <v>72</v>
+      </c>
+      <c r="E44" s="21">
+        <v>82</v>
+      </c>
+      <c r="F44" s="21">
+        <v>72</v>
+      </c>
+      <c r="G44" s="21">
+        <v>9</v>
+      </c>
+      <c r="H44" s="21">
+        <v>23</v>
+      </c>
+      <c r="I44" s="21">
+        <v>21</v>
+      </c>
+      <c r="J44" s="21">
+        <v>23</v>
+      </c>
+      <c r="K44" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="21">
+        <v>90</v>
+      </c>
+      <c r="C45" s="21">
+        <v>77</v>
+      </c>
+      <c r="D45" s="21">
+        <v>88</v>
+      </c>
+      <c r="E45" s="21">
+        <v>92</v>
+      </c>
+      <c r="F45" s="21">
+        <v>82</v>
+      </c>
+      <c r="G45" s="21">
+        <v>6</v>
+      </c>
+      <c r="H45" s="21">
+        <v>12</v>
+      </c>
+      <c r="I45" s="21">
+        <v>21</v>
+      </c>
+      <c r="J45" s="21">
+        <v>25</v>
+      </c>
+      <c r="K45" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="21">
+        <v>169</v>
+      </c>
+      <c r="C46" s="21">
+        <v>186</v>
+      </c>
+      <c r="D46" s="21">
+        <v>169</v>
+      </c>
+      <c r="E46" s="21">
+        <v>174</v>
+      </c>
+      <c r="F46" s="21">
+        <v>159</v>
+      </c>
+      <c r="G46" s="21">
+        <v>23</v>
+      </c>
+      <c r="H46" s="21">
+        <v>24</v>
+      </c>
+      <c r="I46" s="21">
+        <v>19</v>
+      </c>
+      <c r="J46" s="21">
+        <v>21</v>
+      </c>
+      <c r="K46" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="21">
+        <v>149</v>
+      </c>
+      <c r="C47" s="21">
+        <v>150</v>
+      </c>
+      <c r="D47" s="21">
+        <v>148</v>
+      </c>
+      <c r="E47" s="21">
+        <v>167</v>
+      </c>
+      <c r="F47" s="21">
+        <v>168</v>
+      </c>
+      <c r="G47" s="21">
+        <v>13</v>
+      </c>
+      <c r="H47" s="21">
+        <v>22</v>
+      </c>
+      <c r="I47" s="21">
+        <v>29</v>
+      </c>
+      <c r="J47" s="21">
+        <v>36</v>
+      </c>
+      <c r="K47" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="21">
+        <v>69</v>
+      </c>
+      <c r="C48" s="21">
+        <v>77</v>
+      </c>
+      <c r="D48" s="21">
+        <v>59</v>
+      </c>
+      <c r="E48" s="21">
+        <v>55</v>
+      </c>
+      <c r="F48" s="21">
+        <v>52</v>
+      </c>
+      <c r="G48" s="21">
+        <v>9</v>
+      </c>
+      <c r="H48" s="21">
+        <v>26</v>
+      </c>
+      <c r="I48" s="21">
+        <v>15</v>
+      </c>
+      <c r="J48" s="21">
+        <v>10</v>
+      </c>
+      <c r="K48" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="21">
+        <v>80</v>
+      </c>
+      <c r="C49" s="21">
+        <v>99</v>
+      </c>
+      <c r="D49" s="21">
+        <v>113</v>
+      </c>
+      <c r="E49" s="21">
+        <v>108</v>
+      </c>
+      <c r="F49" s="21">
+        <v>101</v>
+      </c>
+      <c r="G49" s="21">
+        <v>19</v>
+      </c>
+      <c r="H49" s="21">
+        <v>24</v>
+      </c>
+      <c r="I49" s="21">
+        <v>39</v>
+      </c>
+      <c r="J49" s="21">
+        <v>28</v>
+      </c>
+      <c r="K49" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="21">
+        <v>193</v>
+      </c>
+      <c r="C50" s="21">
+        <v>188</v>
+      </c>
+      <c r="D50" s="21">
+        <v>211</v>
+      </c>
+      <c r="E50" s="21">
+        <v>203</v>
+      </c>
+      <c r="F50" s="21">
+        <v>165</v>
+      </c>
+      <c r="G50" s="21">
+        <v>22</v>
+      </c>
+      <c r="H50" s="21">
+        <v>31</v>
+      </c>
+      <c r="I50" s="21">
+        <v>35</v>
+      </c>
+      <c r="J50" s="21">
+        <v>37</v>
+      </c>
+      <c r="K50" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="21">
+        <v>295</v>
+      </c>
+      <c r="C51" s="21">
+        <v>312</v>
+      </c>
+      <c r="D51" s="21">
+        <v>336</v>
+      </c>
+      <c r="E51" s="21">
+        <v>342</v>
+      </c>
+      <c r="F51" s="21">
+        <v>341</v>
+      </c>
+      <c r="G51" s="21">
+        <v>24</v>
+      </c>
+      <c r="H51" s="21">
+        <v>39</v>
+      </c>
+      <c r="I51" s="21">
+        <v>36</v>
+      </c>
+      <c r="J51" s="21">
+        <v>47</v>
+      </c>
+      <c r="K51" s="21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="21">
+        <v>104</v>
+      </c>
+      <c r="C52" s="21">
+        <v>87</v>
+      </c>
+      <c r="D52" s="21">
+        <v>84</v>
+      </c>
+      <c r="E52" s="21">
+        <v>84</v>
+      </c>
+      <c r="F52" s="21">
+        <v>77</v>
+      </c>
+      <c r="G52" s="21">
+        <v>12</v>
+      </c>
+      <c r="H52" s="21">
+        <v>12</v>
+      </c>
+      <c r="I52" s="21">
+        <v>9</v>
+      </c>
+      <c r="J52" s="21">
+        <v>19</v>
+      </c>
+      <c r="K52" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C57" s="15">
+        <v>2016</v>
+      </c>
+      <c r="D57" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E57" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F57" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G57" s="15">
+        <v>2015</v>
+      </c>
+      <c r="H57" s="15">
+        <v>2016</v>
+      </c>
+      <c r="I57" s="15">
+        <v>2017</v>
+      </c>
+      <c r="J57" s="15">
+        <v>2018</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="21">
+        <v>571</v>
+      </c>
+      <c r="C58" s="21">
+        <v>743</v>
+      </c>
+      <c r="D58" s="21">
+        <v>872</v>
+      </c>
+      <c r="E58" s="21">
+        <v>967</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1017</v>
+      </c>
+      <c r="G58" s="21">
+        <v>130</v>
+      </c>
+      <c r="H58" s="21">
+        <v>209</v>
+      </c>
+      <c r="I58" s="21">
+        <v>261</v>
+      </c>
+      <c r="J58" s="21">
+        <v>320</v>
+      </c>
+      <c r="K58" s="21">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="21">
+        <v>176</v>
+      </c>
+      <c r="C59" s="21">
+        <v>192</v>
+      </c>
+      <c r="D59" s="21">
+        <v>209</v>
+      </c>
+      <c r="E59" s="21">
+        <v>229</v>
+      </c>
+      <c r="F59" s="21">
+        <v>226</v>
+      </c>
+      <c r="G59" s="21">
+        <v>32</v>
+      </c>
+      <c r="H59" s="21">
+        <v>36</v>
+      </c>
+      <c r="I59" s="21">
+        <v>38</v>
+      </c>
+      <c r="J59" s="21">
+        <v>44</v>
+      </c>
+      <c r="K59" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="22">
+        <v>7859</v>
+      </c>
+      <c r="C60" s="22">
+        <v>7937</v>
+      </c>
+      <c r="D60" s="22">
+        <v>8228</v>
+      </c>
+      <c r="E60" s="22">
+        <v>8302</v>
+      </c>
+      <c r="F60" s="22">
+        <v>7866</v>
+      </c>
+      <c r="G60" s="21">
+        <v>709</v>
+      </c>
+      <c r="H60" s="22">
+        <v>1273</v>
+      </c>
+      <c r="I60" s="22">
+        <v>1239</v>
+      </c>
+      <c r="J60" s="22">
+        <v>1348</v>
+      </c>
+      <c r="K60" s="21">
+        <v>802</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A237989A-62D3-49B7-A8EE-63E399E41C69}">
+  <dimension ref="A1:P75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="39">
+        <v>2011</v>
+      </c>
+      <c r="C2" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="39">
+        <v>2013</v>
+      </c>
+      <c r="E2" s="39">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="23">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="23">
+        <v>2016</v>
+      </c>
+      <c r="H2" s="23">
+        <v>2017</v>
+      </c>
+      <c r="I2" s="23">
+        <v>2018</v>
+      </c>
+      <c r="J2" s="23">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="38">
+        <v>2020</v>
+      </c>
+      <c r="L2" s="38">
+        <v>2021</v>
+      </c>
+      <c r="M2" s="38">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="41">
+        <v>288</v>
+      </c>
+      <c r="C3" s="41">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="D3" s="41">
+        <v>371.1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>451.4</v>
+      </c>
+      <c r="F3" s="41">
+        <v>395.9</v>
+      </c>
+      <c r="G3" s="41">
+        <v>337.5</v>
+      </c>
+      <c r="H3" s="41">
+        <v>365.9</v>
+      </c>
+      <c r="I3" s="41">
+        <v>422.5</v>
+      </c>
+      <c r="J3" s="41">
+        <v>339.3</v>
+      </c>
+      <c r="K3" s="42">
+        <v>373.9</v>
+      </c>
+      <c r="L3" s="42">
+        <v>468.2</v>
+      </c>
+      <c r="M3" s="42">
+        <v>476.1</v>
+      </c>
+      <c r="N3" s="42">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="24">
+        <v>42.5</v>
+      </c>
+      <c r="C4" s="24">
+        <v>43.5</v>
+      </c>
+      <c r="D4" s="24">
+        <v>45.1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>60.5</v>
+      </c>
+      <c r="F4" s="24">
+        <v>61</v>
+      </c>
+      <c r="G4" s="24">
+        <v>52.8</v>
+      </c>
+      <c r="H4" s="24">
+        <v>49.6</v>
+      </c>
+      <c r="I4" s="24">
+        <v>56.7</v>
+      </c>
+      <c r="J4" s="24">
+        <v>50.3</v>
+      </c>
+      <c r="K4" s="40">
+        <v>50.6</v>
+      </c>
+      <c r="L4" s="40">
+        <v>54.5</v>
+      </c>
+      <c r="M4" s="40">
+        <v>58.4</v>
+      </c>
+      <c r="N4" s="40">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="24">
+        <v>24.4</v>
+      </c>
+      <c r="G6" s="24">
+        <v>20.2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>25.2</v>
+      </c>
+      <c r="I6" s="24">
+        <v>18.2</v>
+      </c>
+      <c r="J6" s="24">
+        <v>15.3</v>
+      </c>
+      <c r="K6" s="21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L6" s="21">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M6" s="21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N6" s="20">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24">
+        <v>36.6</v>
+      </c>
+      <c r="G7" s="24">
+        <v>32.6</v>
+      </c>
+      <c r="H7" s="24">
+        <v>24.4</v>
+      </c>
+      <c r="I7" s="24">
+        <v>38.5</v>
+      </c>
+      <c r="J7" s="24">
+        <v>35</v>
+      </c>
+      <c r="K7" s="21">
+        <v>32</v>
+      </c>
+      <c r="L7" s="21">
+        <v>34.9</v>
+      </c>
+      <c r="M7" s="21">
+        <v>38.5</v>
+      </c>
+      <c r="N7" s="20">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="24">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G9" s="24">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H9" s="24">
+        <v>7.8</v>
+      </c>
+      <c r="I9" s="24">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J9" s="24">
+        <v>15.1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>13.8</v>
+      </c>
+      <c r="L9" s="21">
+        <v>15.1</v>
+      </c>
+      <c r="M9" s="21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N9" s="20">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H10" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="I10" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J10" s="24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K10" s="21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L10" s="21">
+        <v>5</v>
+      </c>
+      <c r="M10" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="N10" s="20">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="24">
+        <v>10</v>
+      </c>
+      <c r="G11" s="24">
+        <v>9.4</v>
+      </c>
+      <c r="H11" s="24">
+        <v>9.4</v>
+      </c>
+      <c r="I11" s="24">
+        <v>12.1</v>
+      </c>
+      <c r="J11" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="K11" s="21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L11" s="21">
+        <v>11.1</v>
+      </c>
+      <c r="M11" s="21">
+        <v>11.4</v>
+      </c>
+      <c r="N11" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2016</v>
+      </c>
+      <c r="H16" s="46">
+        <v>2017</v>
+      </c>
+      <c r="I16" s="46">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="46">
+        <v>2019</v>
+      </c>
+      <c r="K16" s="37">
+        <v>2020</v>
+      </c>
+      <c r="L16" s="37">
+        <v>2021</v>
+      </c>
+      <c r="M16" s="37">
+        <v>2022</v>
+      </c>
+      <c r="N16" s="37">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="24">
+        <v>61</v>
+      </c>
+      <c r="G17" s="24">
+        <v>52.8</v>
+      </c>
+      <c r="H17" s="24">
+        <v>49.6</v>
+      </c>
+      <c r="I17" s="24">
+        <v>56.7</v>
+      </c>
+      <c r="J17" s="24">
+        <v>50.3</v>
+      </c>
+      <c r="K17" s="21">
+        <v>50.6</v>
+      </c>
+      <c r="L17" s="21">
+        <v>54.5</v>
+      </c>
+      <c r="M17" s="21">
+        <v>58.4</v>
+      </c>
+      <c r="N17" s="21">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24">
+        <v>6.2</v>
+      </c>
+      <c r="G18" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="H18" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="G19" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="I19" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="J19" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K19" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="L19" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="M19" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="N19" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="G20" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I20" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="L20" s="21">
+        <v>2</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="N20" s="21">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1.9</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="I21" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="J21" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="K21" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="L21" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="M21" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="21">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="G22" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="I22" s="24">
+        <v>8</v>
+      </c>
+      <c r="J22" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="K22" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="L22" s="21">
+        <v>6.1</v>
+      </c>
+      <c r="M22" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="N22" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M23" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="N23" s="21">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24">
+        <v>11.9</v>
+      </c>
+      <c r="G24" s="24">
+        <v>11.9</v>
+      </c>
+      <c r="H24" s="24">
+        <v>12.2</v>
+      </c>
+      <c r="I24" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="J24" s="24">
+        <v>11.7</v>
+      </c>
+      <c r="K24" s="21">
+        <v>11.5</v>
+      </c>
+      <c r="L24" s="21">
+        <v>13.6</v>
+      </c>
+      <c r="M24" s="21">
+        <v>15.1</v>
+      </c>
+      <c r="N24" s="36">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="24">
+        <v>31.7</v>
+      </c>
+      <c r="G25" s="24">
+        <v>24.6</v>
+      </c>
+      <c r="H25" s="24">
+        <v>21.8</v>
+      </c>
+      <c r="I25" s="24">
+        <v>24.2</v>
+      </c>
+      <c r="J25" s="24">
+        <v>22</v>
+      </c>
+      <c r="K25" s="21">
+        <v>23.6</v>
+      </c>
+      <c r="L25" s="21">
+        <v>24.8</v>
+      </c>
+      <c r="M25" s="21">
+        <v>26.2</v>
+      </c>
+      <c r="N25" s="21">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1.9</v>
+      </c>
+      <c r="I26" s="24">
+        <v>2</v>
+      </c>
+      <c r="J26" s="24">
+        <v>2</v>
+      </c>
+      <c r="K26" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L26" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M26" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N26" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+    </row>
+    <row r="31" spans="1:16" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55"/>
+      <c r="B31" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="59">
+        <v>5</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59">
+        <v>50</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59">
+        <v>40</v>
+      </c>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59">
+        <v>9</v>
+      </c>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="56">
+        <v>1</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="56">
+        <v>40</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="56">
+        <v>50</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="57"/>
+      <c r="P34" s="58"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="56">
+        <v>1</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="56">
+        <v>30</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="56">
+        <v>3</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="56">
+        <v>40</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="56">
+        <v>40</v>
+      </c>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="57"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" s="57"/>
+      <c r="P36" s="58"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="56">
+        <v>1</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="56">
+        <v>30</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="57"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59">
+        <v>1.34</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59">
+        <v>0.67</v>
+      </c>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59">
+        <v>4.17</v>
+      </c>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="56">
+        <v>1</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="56">
+        <v>0.83</v>
+      </c>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="57"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="56">
+        <v>0.69</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="57"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="56">
+        <v>0.06</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="56">
+        <v>1</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="56">
+        <v>0.67</v>
+      </c>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" s="57"/>
+      <c r="P42" s="58"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="56">
+        <v>0.69</v>
+      </c>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="57"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+    </row>
+    <row r="45" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
+    </row>
+    <row r="46" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="59">
+        <v>7</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59">
+        <v>60</v>
+      </c>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59">
+        <v>60</v>
+      </c>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59">
+        <v>9</v>
+      </c>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+    </row>
+    <row r="47" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="56">
+        <v>1</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="56">
+        <v>50</v>
+      </c>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="56">
+        <v>50</v>
+      </c>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="57"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
+    </row>
+    <row r="48" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="56">
+        <v>1</v>
+      </c>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="56">
+        <v>40</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="57"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" s="57"/>
+      <c r="P48" s="58"/>
+    </row>
+    <row r="49" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="56">
+        <v>5</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="56">
+        <v>50</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="56">
+        <v>20</v>
+      </c>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="57"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49" s="57"/>
+      <c r="P49" s="58"/>
+    </row>
+    <row r="50" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="56">
+        <v>1</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="56">
+        <v>30</v>
+      </c>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="57"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" s="57"/>
+      <c r="P50" s="58"/>
+    </row>
+    <row r="51" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+    </row>
+    <row r="52" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59">
+        <v>1.69</v>
+      </c>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59">
+        <v>1</v>
+      </c>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59">
+        <v>4.17</v>
+      </c>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+    </row>
+    <row r="53" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="56">
+        <v>1.34</v>
+      </c>
+      <c r="F53" s="57"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="56">
+        <v>0.83</v>
+      </c>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="57"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+    </row>
+    <row r="54" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="56">
+        <v>1</v>
+      </c>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="57"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" s="57"/>
+      <c r="P54" s="58"/>
+    </row>
+    <row r="55" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="56">
+        <v>1.34</v>
+      </c>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="56">
+        <v>0.33</v>
+      </c>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O55" s="57"/>
+      <c r="P55" s="58"/>
+    </row>
+    <row r="56" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="56">
+        <v>0.69</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="57"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="57"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O56" s="57"/>
+      <c r="P56" s="58"/>
+    </row>
+    <row r="57" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:16" s="28" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+    </row>
+    <row r="61" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="51"/>
+      <c r="B61" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="54"/>
+    </row>
+    <row r="62" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="51"/>
+      <c r="B62" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="54"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="47">
+        <v>13</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="47">
+        <v>311</v>
+      </c>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="49"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="47">
+        <v>9</v>
+      </c>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="47">
+        <v>2</v>
+      </c>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="49"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="49"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="47">
+        <v>9</v>
+      </c>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="47">
+        <v>4</v>
+      </c>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="49"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="47">
+        <v>18</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="49"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+    </row>
+    <row r="69" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="51"/>
+      <c r="B69" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="54"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="51"/>
+      <c r="B70" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="54"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="47">
+        <v>85</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="47">
+        <v>47</v>
+      </c>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="49"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="47">
+        <v>14</v>
+      </c>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="47">
+        <v>11</v>
+      </c>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="49"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="49"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="47">
+        <v>58</v>
+      </c>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="47">
+        <v>17</v>
+      </c>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="48"/>
+      <c r="P74" s="49"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="47">
+        <v>12</v>
+      </c>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="143">
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="B69:P69"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="J73:P73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="J74:P74"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="J70:P70"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="B45:P45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="J65:P65"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="J67:P67"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="B61:P61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="J62:P62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="J63:P63"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>